--- a/2020/tabelas_por_mes/May.xlsx
+++ b/2020/tabelas_por_mes/May.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">SP-00026322892 SECURITAS DIREC</t>
   </si>
   <si>
-    <t xml:space="preserve">ENCARGOS COM INSTALAÇÕES</t>
+    <t xml:space="preserve">INSTALAÇÕES</t>
   </si>
   <si>
     <t xml:space="preserve">SECURITAS - ALARME</t>
